--- a/print_form.xlsx
+++ b/print_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lms46\Desktop\fulfill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD12CA1F-7D16-42CB-8A07-5F238383EF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD55BD28-D389-4472-B578-5E448E383513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CD2FCF5-C284-450E-BFAD-6CD38999AF89}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="[$-409]yy&quot;-&quot;m&quot;-&quot;d\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]yy&quot;-&quot;m&quot;-&quot;d\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -679,6 +679,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,6 +802,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,12 +824,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,9 +853,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,90 +866,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,8 +1238,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J392"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I44" sqref="F44:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1256,93 +1256,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="63">
         <v>1</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="83">
-        <v>44941.023113425923</v>
-      </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="E3" s="65">
+        <v>44944.779444444444</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="55"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1356,129 +1356,129 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="42" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="24">
+      <c r="A10" s="51">
         <v>44942</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="44" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="27">
+      <c r="A11" s="54">
         <v>0.75</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="82"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
@@ -1778,43 +1778,43 @@
       <c r="A41" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="67"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="73"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
@@ -2871,13 +2871,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E41:H43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A14:H18"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D1:H1"/>
@@ -2893,6 +2886,13 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E41:H43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A14:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
